--- a/TNR_PREJDD/PREJDD.RO.ACT.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ACT.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="324">
   <si>
     <t>Date</t>
   </si>
@@ -977,13 +977,22 @@
     <t>RO.ACT.003MET.SRM.01.1</t>
   </si>
   <si>
+    <t>N3</t>
+  </si>
+  <si>
     <t>RO.ACT.003MET.SRM.01.2</t>
+  </si>
+  <si>
+    <t>N4</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRS.01.1</t>
   </si>
   <si>
     <t>RO.ACT.003MET.SRS.01.2</t>
+  </si>
+  <si>
+    <t>N5</t>
   </si>
   <si>
     <t>ID_NUMZONLIG</t>
@@ -61362,6 +61371,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="21.5"/>
+    <col customWidth="1" min="5" max="5" width="22.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
@@ -61394,13 +61408,13 @@
         <v>312</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -61411,16 +61425,16 @@
         <v>155</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -61431,16 +61445,16 @@
         <v>166</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -61451,16 +61465,16 @@
         <v>166</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -61474,13 +61488,13 @@
         <v>233</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>98</v>
+        <v>318</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -61509,16 +61523,16 @@
         <v>8</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>9</v>
@@ -61533,7 +61547,7 @@
         <v>303</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>57</v>
@@ -61562,7 +61576,7 @@
         <v>1003.0</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>188</v>
@@ -61606,7 +61620,7 @@
         <v>1004.0</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>188</v>
@@ -61650,7 +61664,7 @@
         <v>1005.0</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>199</v>
@@ -61694,7 +61708,7 @@
         <v>1006.0</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>199</v>
@@ -61738,7 +61752,7 @@
         <v>1007.0</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>244</v>

--- a/TNR_PREJDD/PREJDD.RO.ACT.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ACT.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="325">
   <si>
     <t>Date</t>
   </si>
@@ -1008,6 +1008,9 @@
   </si>
   <si>
     <t>EMP</t>
+  </si>
+  <si>
+    <t>2027-03-01 00:00:00.000</t>
   </si>
 </sst>
 </file>
@@ -2888,8 +2891,8 @@
       <c r="AU2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="16" t="s">
-        <v>63</v>
+      <c r="AV2" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW2" s="16" t="s">
         <v>78</v>
@@ -3045,8 +3048,8 @@
       <c r="AU3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV3" s="16" t="s">
-        <v>63</v>
+      <c r="AV3" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW3" s="16" t="s">
         <v>78</v>
@@ -3202,8 +3205,8 @@
       <c r="AU4" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV4" s="16" t="s">
-        <v>63</v>
+      <c r="AV4" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW4" s="16" t="s">
         <v>78</v>
@@ -3359,8 +3362,8 @@
       <c r="AU5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV5" s="16" t="s">
-        <v>63</v>
+      <c r="AV5" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW5" s="16" t="s">
         <v>78</v>
@@ -3516,8 +3519,8 @@
       <c r="AU6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="16" t="s">
-        <v>63</v>
+      <c r="AV6" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW6" s="16" t="s">
         <v>78</v>
@@ -3673,8 +3676,8 @@
       <c r="AU7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV7" s="16" t="s">
-        <v>63</v>
+      <c r="AV7" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW7" s="16" t="s">
         <v>78</v>
@@ -3830,8 +3833,8 @@
       <c r="AU8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV8" s="16" t="s">
-        <v>63</v>
+      <c r="AV8" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW8" s="16" t="s">
         <v>78</v>
@@ -3987,8 +3990,8 @@
       <c r="AU9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV9" s="16" t="s">
-        <v>63</v>
+      <c r="AV9" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW9" s="16" t="s">
         <v>78</v>
@@ -4144,8 +4147,8 @@
       <c r="AU10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV10" s="16" t="s">
-        <v>63</v>
+      <c r="AV10" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW10" s="16" t="s">
         <v>78</v>
@@ -4301,8 +4304,8 @@
       <c r="AU11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV11" s="16" t="s">
-        <v>63</v>
+      <c r="AV11" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW11" s="16" t="s">
         <v>78</v>
@@ -4458,8 +4461,8 @@
       <c r="AU12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV12" s="16" t="s">
-        <v>63</v>
+      <c r="AV12" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW12" s="16" t="s">
         <v>78</v>
@@ -4615,8 +4618,8 @@
       <c r="AU13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV13" s="16" t="s">
-        <v>63</v>
+      <c r="AV13" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW13" s="16" t="s">
         <v>78</v>
@@ -4772,8 +4775,8 @@
       <c r="AU14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV14" s="16" t="s">
-        <v>63</v>
+      <c r="AV14" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW14" s="16" t="s">
         <v>78</v>
@@ -4929,8 +4932,8 @@
       <c r="AU15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV15" s="16" t="s">
-        <v>63</v>
+      <c r="AV15" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW15" s="16" t="s">
         <v>78</v>
@@ -5086,8 +5089,8 @@
       <c r="AU16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV16" s="16" t="s">
-        <v>63</v>
+      <c r="AV16" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW16" s="16" t="s">
         <v>78</v>
@@ -5243,8 +5246,8 @@
       <c r="AU17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV17" s="16" t="s">
-        <v>63</v>
+      <c r="AV17" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW17" s="16" t="s">
         <v>78</v>
@@ -5400,8 +5403,8 @@
       <c r="AU18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV18" s="16" t="s">
-        <v>63</v>
+      <c r="AV18" s="16">
+        <v>0.0</v>
       </c>
       <c r="AW18" s="16" t="s">
         <v>78</v>
@@ -61516,6 +61519,8 @@
     <col customWidth="1" min="2" max="2" width="16.88"/>
     <col customWidth="1" min="4" max="4" width="10.75"/>
     <col customWidth="1" min="6" max="6" width="20.25"/>
+    <col customWidth="1" min="8" max="8" width="15.38"/>
+    <col customWidth="1" min="9" max="9" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -61585,10 +61590,10 @@
         <v>72</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>70</v>
@@ -61629,10 +61634,10 @@
         <v>72</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>71</v>
@@ -61673,10 +61678,10 @@
         <v>72</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>70</v>
@@ -61717,10 +61722,10 @@
         <v>72</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>71</v>
@@ -61760,11 +61765,11 @@
       <c r="G6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>98</v>
+      <c r="H6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>70</v>

--- a/TNR_PREJDD/PREJDD.RO.ACT.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.ACT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="490">
   <si>
     <t>Date</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>DIVERS03</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.REC.01.A.......</t>
   </si>
   <si>
     <t>GROUPE 4</t>
@@ -3730,13 +3727,13 @@
         <v>15.0</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="O4" s="22" t="s">
         <v>82</v>
@@ -3772,7 +3769,7 @@
         <v>74</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="22" t="s">
         <v>74</v>
@@ -3805,13 +3802,13 @@
         <v>74</v>
       </c>
       <c r="AK4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AM4" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="AM4" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="AN4" s="22" t="s">
         <v>74</v>
@@ -3832,7 +3829,7 @@
         <v>82</v>
       </c>
       <c r="AT4" s="27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AU4" s="22" t="s">
         <v>82</v>
@@ -3861,46 +3858,46 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="23">
         <v>16.0</v>
       </c>
       <c r="L5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="N5" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="O5" s="22" t="s">
         <v>82</v>
@@ -3936,7 +3933,7 @@
         <v>74</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="22" t="s">
         <v>74</v>
@@ -3969,13 +3966,13 @@
         <v>74</v>
       </c>
       <c r="AK5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AL5" s="22" t="s">
+      <c r="AM5" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="AM5" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="AN5" s="22" t="s">
         <v>74</v>
@@ -3996,7 +3993,7 @@
         <v>82</v>
       </c>
       <c r="AT5" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AU5" s="22" t="s">
         <v>82</v>
@@ -4025,46 +4022,46 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>137</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" s="23">
         <v>17.0</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>82</v>
@@ -4100,7 +4097,7 @@
         <v>74</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>74</v>
@@ -4133,13 +4130,13 @@
         <v>74</v>
       </c>
       <c r="AK6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AL6" s="22" t="s">
+      <c r="AM6" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="AM6" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="AN6" s="22" t="s">
         <v>74</v>
@@ -4160,7 +4157,7 @@
         <v>82</v>
       </c>
       <c r="AT6" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AU6" s="22" t="s">
         <v>82</v>
@@ -4189,46 +4186,46 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="K7" s="23">
         <v>18.0</v>
       </c>
       <c r="L7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="N7" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>82</v>
@@ -4264,7 +4261,7 @@
         <v>74</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>74</v>
@@ -4297,13 +4294,13 @@
         <v>74</v>
       </c>
       <c r="AK7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL7" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AM7" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="AM7" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="AN7" s="22" t="s">
         <v>74</v>
@@ -4324,7 +4321,7 @@
         <v>82</v>
       </c>
       <c r="AT7" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AU7" s="22" t="s">
         <v>82</v>
@@ -4353,46 +4350,46 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="K8" s="23">
         <v>19.0</v>
       </c>
       <c r="L8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="N8" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>82</v>
@@ -4428,7 +4425,7 @@
         <v>74</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>74</v>
@@ -4461,13 +4458,13 @@
         <v>74</v>
       </c>
       <c r="AK8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL8" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AL8" s="22" t="s">
+      <c r="AM8" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="AM8" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="AN8" s="22" t="s">
         <v>74</v>
@@ -4488,7 +4485,7 @@
         <v>82</v>
       </c>
       <c r="AT8" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AU8" s="22" t="s">
         <v>82</v>
@@ -4517,46 +4514,46 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="K9" s="23">
         <v>20.0</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="N9" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>82</v>
@@ -4592,7 +4589,7 @@
         <v>74</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA9" s="22" t="s">
         <v>74</v>
@@ -4625,13 +4622,13 @@
         <v>74</v>
       </c>
       <c r="AK9" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="AL9" s="22" t="s">
+      <c r="AM9" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="AM9" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="AN9" s="22" t="s">
         <v>74</v>
@@ -4652,7 +4649,7 @@
         <v>82</v>
       </c>
       <c r="AT9" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AU9" s="22" t="s">
         <v>82</v>
@@ -4681,46 +4678,46 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="K10" s="23">
         <v>21.0</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="N10" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>82</v>
@@ -4756,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>74</v>
@@ -4789,13 +4786,13 @@
         <v>74</v>
       </c>
       <c r="AK10" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL10" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="AL10" s="22" t="s">
+      <c r="AM10" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="AM10" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="AN10" s="22" t="s">
         <v>74</v>
@@ -4816,7 +4813,7 @@
         <v>82</v>
       </c>
       <c r="AT10" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AU10" s="22" t="s">
         <v>82</v>
@@ -4845,46 +4842,46 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="K11" s="23">
         <v>22.0</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="N11" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>82</v>
@@ -4920,7 +4917,7 @@
         <v>74</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA11" s="22" t="s">
         <v>74</v>
@@ -4953,13 +4950,13 @@
         <v>74</v>
       </c>
       <c r="AK11" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL11" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AL11" s="22" t="s">
+      <c r="AM11" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="AM11" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="AN11" s="22" t="s">
         <v>74</v>
@@ -4980,7 +4977,7 @@
         <v>82</v>
       </c>
       <c r="AT11" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AU11" s="22" t="s">
         <v>82</v>
@@ -5009,46 +5006,46 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="K12" s="23">
         <v>23.0</v>
       </c>
       <c r="L12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>82</v>
@@ -5084,7 +5081,7 @@
         <v>74</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA12" s="22" t="s">
         <v>74</v>
@@ -5117,13 +5114,13 @@
         <v>74</v>
       </c>
       <c r="AK12" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL12" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AL12" s="22" t="s">
+      <c r="AM12" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="AM12" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="AN12" s="22" t="s">
         <v>74</v>
@@ -5144,7 +5141,7 @@
         <v>82</v>
       </c>
       <c r="AT12" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU12" s="22" t="s">
         <v>82</v>
@@ -5173,46 +5170,46 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="G13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="K13" s="23">
         <v>24.0</v>
       </c>
       <c r="L13" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="N13" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>82</v>
@@ -5248,7 +5245,7 @@
         <v>74</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA13" s="22" t="s">
         <v>74</v>
@@ -5281,13 +5278,13 @@
         <v>74</v>
       </c>
       <c r="AK13" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL13" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="AL13" s="22" t="s">
+      <c r="AM13" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="AM13" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="AN13" s="22" t="s">
         <v>74</v>
@@ -5308,7 +5305,7 @@
         <v>82</v>
       </c>
       <c r="AT13" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AU13" s="22" t="s">
         <v>82</v>
@@ -5337,46 +5334,46 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="J14" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="K14" s="23">
         <v>25.0</v>
       </c>
       <c r="L14" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="N14" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>253</v>
       </c>
       <c r="O14" s="22" t="s">
         <v>82</v>
@@ -5412,7 +5409,7 @@
         <v>74</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA14" s="22" t="s">
         <v>74</v>
@@ -5445,13 +5442,13 @@
         <v>74</v>
       </c>
       <c r="AK14" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL14" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AL14" s="22" t="s">
+      <c r="AM14" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="AM14" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="AN14" s="22" t="s">
         <v>74</v>
@@ -5472,7 +5469,7 @@
         <v>82</v>
       </c>
       <c r="AT14" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU14" s="22" t="s">
         <v>82</v>
@@ -5501,46 +5498,46 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="K15" s="23">
         <v>27.0</v>
       </c>
       <c r="L15" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="N15" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>82</v>
@@ -5576,7 +5573,7 @@
         <v>74</v>
       </c>
       <c r="Z15" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA15" s="22" t="s">
         <v>74</v>
@@ -5609,13 +5606,13 @@
         <v>74</v>
       </c>
       <c r="AK15" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL15" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="AL15" s="22" t="s">
+      <c r="AM15" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="AM15" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="AN15" s="22" t="s">
         <v>74</v>
@@ -5636,7 +5633,7 @@
         <v>82</v>
       </c>
       <c r="AT15" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AU15" s="22" t="s">
         <v>82</v>
@@ -5665,46 +5662,46 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="E16" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="I16" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>279</v>
       </c>
       <c r="K16" s="23">
         <v>28.0</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="N16" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>82</v>
@@ -5740,7 +5737,7 @@
         <v>74</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA16" s="22" t="s">
         <v>74</v>
@@ -5773,13 +5770,13 @@
         <v>74</v>
       </c>
       <c r="AK16" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL16" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="AL16" s="22" t="s">
+      <c r="AM16" s="22" t="s">
         <v>284</v>
-      </c>
-      <c r="AM16" s="22" t="s">
-        <v>285</v>
       </c>
       <c r="AN16" s="22" t="s">
         <v>74</v>
@@ -5800,7 +5797,7 @@
         <v>82</v>
       </c>
       <c r="AT16" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AU16" s="22" t="s">
         <v>82</v>
@@ -5829,46 +5826,46 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="G17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="I17" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="J17" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="K17" s="23">
         <v>29.0</v>
       </c>
       <c r="L17" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="N17" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="O17" s="22" t="s">
         <v>82</v>
@@ -5904,7 +5901,7 @@
         <v>74</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA17" s="22" t="s">
         <v>74</v>
@@ -5937,13 +5934,13 @@
         <v>74</v>
       </c>
       <c r="AK17" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL17" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="AL17" s="22" t="s">
+      <c r="AM17" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="AM17" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="AN17" s="22" t="s">
         <v>74</v>
@@ -5964,7 +5961,7 @@
         <v>82</v>
       </c>
       <c r="AT17" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AU17" s="22" t="s">
         <v>82</v>
@@ -5993,46 +5990,46 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="G18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="22" t="s">
+      <c r="I18" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="K18" s="23">
         <v>30.0</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="N18" s="22" t="s">
         <v>308</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>309</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>82</v>
@@ -6068,7 +6065,7 @@
         <v>74</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA18" s="22" t="s">
         <v>74</v>
@@ -6101,13 +6098,13 @@
         <v>74</v>
       </c>
       <c r="AK18" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL18" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="AL18" s="22" t="s">
+      <c r="AM18" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="AM18" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="AN18" s="22" t="s">
         <v>74</v>
@@ -6128,7 +6125,7 @@
         <v>82</v>
       </c>
       <c r="AT18" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU18" s="22" t="s">
         <v>82</v>
@@ -6160,31 +6157,31 @@
         <v>90</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="G19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>74</v>
@@ -6226,13 +6223,13 @@
         <v>74</v>
       </c>
       <c r="X19" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y19" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z19" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA19" s="22" t="s">
         <v>74</v>
@@ -6324,10 +6321,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>78</v>
@@ -6336,19 +6333,19 @@
         <v>74</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>319</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>74</v>
@@ -6390,13 +6387,13 @@
         <v>74</v>
       </c>
       <c r="X20" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y20" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA20" s="22" t="s">
         <v>74</v>
@@ -6488,10 +6485,10 @@
         <v>90</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>98</v>
@@ -6500,19 +6497,19 @@
         <v>74</v>
       </c>
       <c r="F21" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>74</v>
@@ -6554,13 +6551,13 @@
         <v>74</v>
       </c>
       <c r="X21" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y21" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z21" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA21" s="22" t="s">
         <v>74</v>
@@ -6649,34 +6646,34 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="G22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>325</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>74</v>
@@ -6718,13 +6715,13 @@
         <v>74</v>
       </c>
       <c r="X22" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y22" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z22" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA22" s="22" t="s">
         <v>74</v>
@@ -6813,34 +6810,34 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>74</v>
@@ -6882,13 +6879,13 @@
         <v>74</v>
       </c>
       <c r="X23" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y23" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA23" s="22" t="s">
         <v>74</v>
@@ -6977,34 +6974,34 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="G24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>331</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>74</v>
@@ -7046,13 +7043,13 @@
         <v>74</v>
       </c>
       <c r="X24" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y24" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z24" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA24" s="22" t="s">
         <v>74</v>
@@ -7141,34 +7138,34 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="G25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>334</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>74</v>
@@ -7210,13 +7207,13 @@
         <v>74</v>
       </c>
       <c r="X25" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y25" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z25" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA25" s="22" t="s">
         <v>74</v>
@@ -7305,34 +7302,34 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="G26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>74</v>
@@ -7374,13 +7371,13 @@
         <v>74</v>
       </c>
       <c r="X26" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y26" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z26" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA26" s="22" t="s">
         <v>74</v>
@@ -7469,34 +7466,34 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="G27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>339</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>340</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>74</v>
@@ -7538,13 +7535,13 @@
         <v>74</v>
       </c>
       <c r="X27" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y27" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z27" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA27" s="22" t="s">
         <v>74</v>
@@ -7633,34 +7630,34 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="29" t="s">
+      <c r="G28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>343</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>74</v>
@@ -7702,13 +7699,13 @@
         <v>74</v>
       </c>
       <c r="X28" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y28" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z28" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA28" s="22" t="s">
         <v>74</v>
@@ -7797,34 +7794,34 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>345</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>346</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>74</v>
@@ -7866,13 +7863,13 @@
         <v>74</v>
       </c>
       <c r="X29" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y29" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA29" s="22" t="s">
         <v>74</v>
@@ -7961,34 +7958,34 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="G30" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>349</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>74</v>
@@ -8030,13 +8027,13 @@
         <v>74</v>
       </c>
       <c r="X30" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Y30" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z30" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA30" s="22" t="s">
         <v>74</v>
@@ -8125,34 +8122,34 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="G31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>351</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>352</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>74</v>
@@ -8194,13 +8191,13 @@
         <v>74</v>
       </c>
       <c r="X31" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y31" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z31" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA31" s="22" t="s">
         <v>74</v>
@@ -8289,34 +8286,34 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="G32" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>354</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>355</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>74</v>
@@ -8358,13 +8355,13 @@
         <v>74</v>
       </c>
       <c r="X32" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y32" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z32" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="22" t="s">
         <v>74</v>
@@ -8453,34 +8450,34 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="G33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>74</v>
@@ -8522,13 +8519,13 @@
         <v>74</v>
       </c>
       <c r="X33" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y33" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z33" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA33" s="22" t="s">
         <v>74</v>
@@ -8617,34 +8614,34 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>360</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>74</v>
@@ -8686,13 +8683,13 @@
         <v>74</v>
       </c>
       <c r="X34" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y34" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z34" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA34" s="22" t="s">
         <v>74</v>
@@ -8781,34 +8778,34 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>74</v>
@@ -8850,13 +8847,13 @@
         <v>74</v>
       </c>
       <c r="X35" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y35" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Z35" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA35" s="22" t="s">
         <v>74</v>
@@ -8945,34 +8942,34 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="C36" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="34" t="s">
+      <c r="I36" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="34" t="s">
-        <v>369</v>
-      </c>
       <c r="J36" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>74</v>
@@ -9020,7 +9017,7 @@
         <v>74</v>
       </c>
       <c r="Z36" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA36" s="22" t="s">
         <v>74</v>
@@ -9109,34 +9106,34 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="C37" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="34" t="s">
+      <c r="I37" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>374</v>
-      </c>
       <c r="J37" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>74</v>
@@ -9184,7 +9181,7 @@
         <v>74</v>
       </c>
       <c r="Z37" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA37" s="22" t="s">
         <v>74</v>
@@ -9273,34 +9270,34 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="C38" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="34" t="s">
+      <c r="I38" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="I38" s="34" t="s">
-        <v>379</v>
-      </c>
       <c r="J38" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>74</v>
@@ -9348,7 +9345,7 @@
         <v>74</v>
       </c>
       <c r="Z38" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA38" s="22" t="s">
         <v>74</v>
@@ -9437,34 +9434,34 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="C39" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="34" t="s">
+      <c r="I39" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="I39" s="34" t="s">
-        <v>384</v>
-      </c>
       <c r="J39" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>74</v>
@@ -9512,7 +9509,7 @@
         <v>74</v>
       </c>
       <c r="Z39" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA39" s="22" t="s">
         <v>74</v>
@@ -9601,34 +9598,34 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="C40" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="34" t="s">
+      <c r="I40" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="I40" s="34" t="s">
-        <v>389</v>
-      </c>
       <c r="J40" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>74</v>
@@ -9676,7 +9673,7 @@
         <v>74</v>
       </c>
       <c r="Z40" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA40" s="22" t="s">
         <v>74</v>
@@ -9765,34 +9762,34 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="C41" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="34" t="s">
+      <c r="I41" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="I41" s="34" t="s">
-        <v>394</v>
-      </c>
       <c r="J41" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>74</v>
@@ -9840,7 +9837,7 @@
         <v>74</v>
       </c>
       <c r="Z41" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA41" s="22" t="s">
         <v>74</v>
@@ -9929,34 +9926,34 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="C42" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="D42" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="I42" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="I42" s="34" t="s">
-        <v>399</v>
-      </c>
       <c r="J42" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>74</v>
@@ -10004,7 +10001,7 @@
         <v>74</v>
       </c>
       <c r="Z42" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA42" s="22" t="s">
         <v>74</v>
@@ -10093,34 +10090,34 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="C43" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="34" t="s">
+      <c r="I43" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="I43" s="34" t="s">
-        <v>404</v>
-      </c>
       <c r="J43" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>74</v>
@@ -10168,7 +10165,7 @@
         <v>74</v>
       </c>
       <c r="Z43" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA43" s="22" t="s">
         <v>74</v>
@@ -10257,34 +10254,34 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="C44" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="34" t="s">
+      <c r="I44" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>409</v>
-      </c>
       <c r="J44" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>74</v>
@@ -10332,7 +10329,7 @@
         <v>74</v>
       </c>
       <c r="Z44" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA44" s="22" t="s">
         <v>74</v>
@@ -10421,34 +10418,34 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B45" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="34" t="s">
+      <c r="I45" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="I45" s="34" t="s">
-        <v>412</v>
-      </c>
       <c r="J45" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>74</v>
@@ -10496,7 +10493,7 @@
         <v>74</v>
       </c>
       <c r="Z45" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA45" s="22" t="s">
         <v>74</v>
@@ -10585,34 +10582,34 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="C46" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="D46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="34" t="s">
+      <c r="I46" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="I46" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="J46" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>74</v>
@@ -10660,7 +10657,7 @@
         <v>74</v>
       </c>
       <c r="Z46" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA46" s="22" t="s">
         <v>74</v>
@@ -10749,34 +10746,34 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="C47" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="34" t="s">
+      <c r="I47" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="I47" s="34" t="s">
-        <v>422</v>
-      </c>
       <c r="J47" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>74</v>
@@ -10824,7 +10821,7 @@
         <v>74</v>
       </c>
       <c r="Z47" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA47" s="22" t="s">
         <v>74</v>
@@ -10913,34 +10910,34 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="C48" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="34" t="s">
+      <c r="I48" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="I48" s="34" t="s">
-        <v>427</v>
-      </c>
       <c r="J48" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>74</v>
@@ -10988,7 +10985,7 @@
         <v>74</v>
       </c>
       <c r="Z48" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA48" s="22" t="s">
         <v>74</v>
@@ -11077,34 +11074,34 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="C49" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="34" t="s">
+      <c r="I49" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="34" t="s">
-        <v>431</v>
-      </c>
       <c r="J49" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>74</v>
@@ -11152,7 +11149,7 @@
         <v>74</v>
       </c>
       <c r="Z49" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA49" s="22" t="s">
         <v>74</v>
@@ -11241,34 +11238,34 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="C50" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="34" t="s">
+      <c r="I50" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="I50" s="34" t="s">
-        <v>435</v>
-      </c>
       <c r="J50" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>74</v>
@@ -11316,7 +11313,7 @@
         <v>74</v>
       </c>
       <c r="Z50" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA50" s="22" t="s">
         <v>74</v>
@@ -11405,34 +11402,34 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="C51" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="34" t="s">
+      <c r="I51" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="I51" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="J51" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>74</v>
@@ -11480,7 +11477,7 @@
         <v>74</v>
       </c>
       <c r="Z51" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA51" s="22" t="s">
         <v>74</v>
@@ -11569,34 +11566,34 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="C52" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="34" t="s">
+      <c r="I52" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="I52" s="34" t="s">
-        <v>443</v>
-      </c>
       <c r="J52" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>74</v>
@@ -11644,7 +11641,7 @@
         <v>74</v>
       </c>
       <c r="Z52" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA52" s="22" t="s">
         <v>74</v>
@@ -11733,34 +11730,34 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B53" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="34" t="s">
+      <c r="I53" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="I53" s="34" t="s">
-        <v>446</v>
-      </c>
       <c r="J53" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K53" s="22" t="s">
         <v>74</v>
@@ -11808,7 +11805,7 @@
         <v>74</v>
       </c>
       <c r="Z53" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA53" s="22" t="s">
         <v>74</v>
@@ -11897,34 +11894,34 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="C54" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="34" t="s">
+      <c r="I54" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="I54" s="34" t="s">
-        <v>450</v>
-      </c>
       <c r="J54" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K54" s="22" t="s">
         <v>74</v>
@@ -11972,7 +11969,7 @@
         <v>74</v>
       </c>
       <c r="Z54" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA54" s="22" t="s">
         <v>74</v>
@@ -12061,34 +12058,34 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B55" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="C55" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="34" t="s">
+      <c r="I55" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="I55" s="34" t="s">
-        <v>454</v>
-      </c>
       <c r="J55" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>74</v>
@@ -12136,7 +12133,7 @@
         <v>74</v>
       </c>
       <c r="Z55" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA55" s="22" t="s">
         <v>74</v>
@@ -65003,30 +65000,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>457</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>74</v>
@@ -65037,13 +65034,13 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>74</v>
@@ -65054,13 +65051,13 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>74</v>
@@ -65071,13 +65068,13 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>74</v>
@@ -65088,19 +65085,19 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>464</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -65126,36 +65123,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>468</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>457</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>470</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>74</v>
@@ -65166,16 +65163,16 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>471</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>472</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>74</v>
@@ -65186,16 +65183,16 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>74</v>
@@ -65206,16 +65203,16 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>74</v>
@@ -65226,22 +65223,22 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>476</v>
-      </c>
       <c r="E6" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>464</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -65269,19 +65266,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>480</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>16</v>
@@ -65290,13 +65287,13 @@
         <v>38</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>458</v>
-      </c>
       <c r="J1" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>64</v>
@@ -65313,7 +65310,7 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="25">
         <v>1001.0</v>
@@ -65322,13 +65319,13 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>483</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>83</v>
@@ -65357,7 +65354,7 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="25">
         <v>1002.0</v>
@@ -65366,13 +65363,13 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>83</v>
@@ -65401,7 +65398,7 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="25">
         <v>1003.0</v>
@@ -65410,13 +65407,13 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>83</v>
@@ -65445,7 +65442,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="25">
         <v>1004.0</v>
@@ -65454,13 +65451,13 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>83</v>
@@ -65489,7 +65486,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="25">
         <v>1005.0</v>
@@ -65498,22 +65495,22 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>81</v>
@@ -65552,10 +65549,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>489</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2">
